--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikyl\Desktop\Python\miniroyale_token_accounts\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikyl\Desktop\Python\parsing\miniroyale_token_accounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E01D6293-BF7F-427A-A6BA-FE04BC2D3A8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFCDC1-3155-48DC-A343-49850D8E9706}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikyl\Desktop\Python\parsing\miniroyale_token_accounts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nikyl\Desktop\Python\parsing\miniroyale_token_accounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFCDC1-3155-48DC-A343-49850D8E9706}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>https://images.miniroyale.io/token-image/nft-intermediate-upload/e37ae75f-e89c-47b4-8e9e-925e9ff04cb5?expires=4814166610&amp;ext=png&amp;level=32&amp;size=1250&amp;token=WbatAIwo5uUepCN3CTD_vkPhG3F04zfSFnzpoFbU2X4</t>
   </si>
@@ -198,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,13 +297,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>66676</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1038225</xdr:rowOff>
     </xdr:to>
@@ -335,7 +334,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2867026" y="381001"/>
+          <a:off x="3390901" y="381001"/>
           <a:ext cx="1038224" cy="1038224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -610,12 +609,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,10 +814,165 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I35" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AE1"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
